--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Unnamed: 7</t>
   </si>
   <si>
-    <t xml:space="preserve">2c7a4062-14f8-413f-9654-a63ad7421c3c</t>
+    <t xml:space="preserve">b053627c-931f-4abe-a5d4-c8342c4c4f06</t>
   </si>
   <si>
     <t xml:space="preserve">Меню</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">6b7f31c0-0d59-408d-9b8e-f6eca364791b</t>
+    <t xml:space="preserve">76662e78-0f6f-4e24-b428-2366daacd1f7</t>
   </si>
   <si>
     <t xml:space="preserve">Холодные закуски</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">К пиву</t>
   </si>
   <si>
-    <t xml:space="preserve">7cb4fec7-2ced-4adb-9d3d-c7beb93d1389</t>
+    <t xml:space="preserve">a1c87523-2e3c-42a4-9fcf-1638e3a9844a</t>
   </si>
   <si>
     <t xml:space="preserve">Сельдь Бисмарк</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
   </si>
   <si>
-    <t xml:space="preserve">2dda5647-012d-4573-974d-0b7b0de13c90</t>
+    <t xml:space="preserve">d575fc03-e64d-42de-9373-bf81ff3a7719</t>
   </si>
   <si>
     <t xml:space="preserve">Мясная тарелка</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
-    <t xml:space="preserve">ede814e8-7662-4697-aeed-e29973476adb</t>
+    <t xml:space="preserve">616002a4-dfdf-4eea-ab8d-107ef6af6b22</t>
   </si>
   <si>
     <t xml:space="preserve">Рыбная тарелка</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
   </si>
   <si>
-    <t xml:space="preserve">60eb33a5-041f-4433-baa2-25c7d476309c</t>
+    <t xml:space="preserve">79ca98d8-c6cf-45e8-bb6f-df634ac0952b</t>
   </si>
   <si>
     <t xml:space="preserve">Рамен</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Горячий рамен</t>
   </si>
   <si>
-    <t xml:space="preserve">698ec0ea-d7f4-4700-9c4e-58ae9e7479ad</t>
+    <t xml:space="preserve">b5ef0bce-b153-45b9-81f6-d32cc176cad6</t>
   </si>
   <si>
     <t xml:space="preserve">Дайзу рамен</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
   </si>
   <si>
-    <t xml:space="preserve">0380429a-73f2-4f36-9367-21e9b21da6b1</t>
+    <t xml:space="preserve">8d21f87b-3994-4eff-9c87-c89468ba85db</t>
   </si>
   <si>
     <t xml:space="preserve">Унаги рамен</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
   </si>
   <si>
-    <t xml:space="preserve">bb5d7a2b-d325-401b-acf4-2f513c283f6d</t>
+    <t xml:space="preserve">aedf3f74-0580-4f00-b7e1-4ea3b9e58384</t>
   </si>
   <si>
     <t xml:space="preserve">Чиизу Рамен</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
   </si>
   <si>
-    <t xml:space="preserve">b16e802e-fb1f-451a-845c-a289f90ea01a</t>
+    <t xml:space="preserve">bf4c6d5a-39f3-42ce-9f65-f26ab2e267fc</t>
   </si>
   <si>
     <t xml:space="preserve">Алкогольное меню</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Алкогольные напитки</t>
   </si>
   <si>
-    <t xml:space="preserve">dd412794-e7ce-48e1-92c7-c85c942272ef</t>
+    <t xml:space="preserve">51eae566-ff75-4e6a-8049-7b0c5be392f0</t>
   </si>
   <si>
     <t xml:space="preserve">Красные вина</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Для романтичного вечера</t>
   </si>
   <si>
-    <t xml:space="preserve">83470b0b-e1d8-463d-bc64-302155aae2f8</t>
+    <t xml:space="preserve">210e9cbf-453c-416b-a2ba-1230f55e5c68</t>
   </si>
   <si>
     <t xml:space="preserve">Шемен де Пап ля Ноблесс</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
   </si>
   <si>
-    <t xml:space="preserve">d0d788b9-70da-4c78-ab7b-1c848b60eb0e</t>
+    <t xml:space="preserve">c9845080-28ab-4b68-ac5c-1830f67d6863</t>
   </si>
   <si>
     <t xml:space="preserve">Рипароссо Монтепульчано</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Вино красное, сухое</t>
   </si>
   <si>
-    <t xml:space="preserve">aaefd67c-7263-440f-a484-193738d667e4</t>
+    <t xml:space="preserve">b496a8bf-be8c-4cf0-a313-d2644a8f5280</t>
   </si>
   <si>
     <t xml:space="preserve">Кьянти, Серристори</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
   </si>
   <si>
-    <t xml:space="preserve">d15cbfca-6d16-48ba-85d2-c6725bfb19e6</t>
+    <t xml:space="preserve">52072132-2695-4e7d-9b28-8977eb6adc63</t>
   </si>
   <si>
     <t xml:space="preserve">Виски</t>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">Для интересных бесед</t>
   </si>
   <si>
-    <t xml:space="preserve">c5ae3b58-23f3-48b8-8cc8-15c3170974e2</t>
+    <t xml:space="preserve">31329fb7-62e1-4b22-aa9d-ddede539b849</t>
   </si>
   <si>
     <t xml:space="preserve">Джемисон</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
   </si>
   <si>
-    <t xml:space="preserve">afe61dd0-7297-44f1-99ef-45b3a2dc849b</t>
+    <t xml:space="preserve">d9c5d13b-a212-4462-a318-26a3ea325f7a</t>
   </si>
   <si>
     <t xml:space="preserve">Джек Дэниелс</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
   </si>
   <si>
-    <t xml:space="preserve">e2b11c2f-f0b4-45b6-9b81-769e5c6deb5d</t>
+    <t xml:space="preserve">3476263d-2ca1-48b3-90b2-0c4ee3d5bdae</t>
   </si>
   <si>
     <t xml:space="preserve">Чивас Ригал</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
   </si>
   <si>
-    <t xml:space="preserve">dd</t>
+    <t xml:space="preserve">425f6536-9013-45e0-85c1-36cd939e5c03</t>
   </si>
   <si>
     <t xml:space="preserve">hekko</t>
@@ -329,14 +329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Основное меню</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">76662e78-0f6f-4e24-b428-2366daacd1f7</t>
@@ -307,13 +304,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -336,10 +337,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -368,305 +369,248 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="2" t="n">
+        <v>182.99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="2" t="n">
+        <v>215.36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>215.36</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="2" t="n">
+        <v>265.57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>265.57</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="2" t="n">
+        <v>166.47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>166.47</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="2" t="n">
+        <v>168.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>168.25</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="2" t="n">
+        <v>132.88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>132.88</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="2" t="n">
+        <v>2700.79</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>2700.79</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="2" t="n">
+        <v>3100.33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>3100.33</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="2" t="n">
+        <v>1850.42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>1850.42</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="2" t="n">
+        <v>420.78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>420.78</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="2" t="n">
+        <v>440.11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>440.11</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="2" t="n">
+        <v>520.08</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>520.08</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
